--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.021020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.021020.xlsx_with_dialog_acts.xlsx
@@ -589,12 +589,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -627,12 +627,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3029,12 +3029,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3485,12 +3485,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3979,12 +3979,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4595,12 +4595,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4903,12 +4903,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5017,12 +5017,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5207,12 +5207,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5819,12 +5819,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5857,12 +5857,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6047,12 +6047,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6123,12 +6123,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6275,12 +6275,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6313,12 +6313,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6351,12 +6351,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6389,12 +6389,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6693,12 +6693,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6921,12 +6921,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7187,12 +7187,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7339,12 +7339,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7529,12 +7529,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7567,12 +7567,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7757,12 +7757,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8295,12 +8295,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8333,12 +8333,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8869,12 +8869,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8907,12 +8907,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9595,12 +9595,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9823,12 +9823,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9861,12 +9861,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10051,12 +10051,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10887,12 +10887,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11229,12 +11229,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11267,12 +11267,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11305,12 +11305,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11685,12 +11685,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11761,12 +11761,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12063,12 +12063,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12405,12 +12405,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13469,12 +13469,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13815,12 +13815,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13891,12 +13891,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13967,12 +13967,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14043,12 +14043,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14157,12 +14157,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14575,12 +14575,12 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14727,12 +14727,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14955,12 +14955,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14993,12 +14993,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15297,12 +15297,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15983,12 +15983,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16173,12 +16173,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16557,12 +16557,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18129,12 +18129,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18927,12 +18927,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19231,12 +19231,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19387,12 +19387,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19771,12 +19771,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19809,12 +19809,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19961,12 +19961,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20117,12 +20117,12 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20269,12 +20269,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20725,12 +20725,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21067,12 +21067,12 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21219,12 +21219,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21333,12 +21333,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -21447,12 +21447,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21561,12 +21561,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21637,12 +21637,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21869,12 +21869,12 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22215,12 +22215,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22443,12 +22443,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22557,12 +22557,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23735,12 +23735,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23925,12 +23925,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
